--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8D6800-72F3-494E-92F0-49BA5D24C6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Front-End</t>
   </si>
@@ -94,13 +95,16 @@
   </si>
   <si>
     <t>Berkay,Gözde,Umut</t>
+  </si>
+  <si>
+    <t>UMUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +165,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,7 +256,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
@@ -255,6 +266,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="%40 - Vurgu4" xfId="5" builtinId="43"/>
@@ -539,23 +551,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -584,7 +596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -599,7 +611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -614,7 +626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -626,7 +638,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -638,12 +650,12 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -655,33 +667,38 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -690,7 +707,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -699,7 +716,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>

--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8D6800-72F3-494E-92F0-49BA5D24C6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C09C1BC-1F23-44AE-85E8-15252059A7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Front-End</t>
   </si>
@@ -97,7 +97,10 @@
     <t>Berkay,Gözde,Umut</t>
   </si>
   <si>
-    <t>UMUT</t>
+    <t>EditProfile Page</t>
+  </si>
+  <si>
+    <t>umut</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,12 +680,7 @@
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -692,11 +690,16 @@
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">

--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C09C1BC-1F23-44AE-85E8-15252059A7DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17449C37-EF29-4110-9262-09783A80F6B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Front-End</t>
   </si>
@@ -558,7 +558,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,6 +695,10 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">

--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17449C37-EF29-4110-9262-09783A80F6B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Front-End</t>
   </si>
@@ -106,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +174,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,7 +264,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
@@ -270,14 +275,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="%40 - Vurgu4" xfId="5" builtinId="43"/>
-    <cellStyle name="Çıkış" xfId="4" builtinId="21"/>
-    <cellStyle name="Giriş" xfId="3" builtinId="20"/>
-    <cellStyle name="İyi" xfId="1" builtinId="26"/>
-    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
+    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,23 +560,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,7 +590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="24" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -599,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -614,7 +620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -629,7 +635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -641,7 +647,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -653,12 +659,15 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -670,25 +679,27 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -700,12 +711,12 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -714,7 +725,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -723,7 +734,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>

--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Front-End</t>
   </si>
@@ -60,9 +60,6 @@
     <t>SearchResults Page</t>
   </si>
   <si>
-    <t>… other pages</t>
-  </si>
-  <si>
     <t>AuthGuard Service</t>
   </si>
   <si>
@@ -99,14 +96,14 @@
     <t>EditProfile Page</t>
   </si>
   <si>
-    <t>umut</t>
+    <t>Gözde\Berkay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,26 +161,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +204,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -256,15 +271,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
@@ -273,17 +292,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+  <cellStyles count="10">
+    <cellStyle name="%40 - Vurgu3" xfId="6" builtinId="39"/>
+    <cellStyle name="%40 - Vurgu4" xfId="5" builtinId="43"/>
+    <cellStyle name="%60 - Vurgu4" xfId="7" builtinId="44"/>
+    <cellStyle name="%60 - Vurgu5" xfId="8" builtinId="48"/>
+    <cellStyle name="%60 - Vurgu6" xfId="9" builtinId="52"/>
+    <cellStyle name="Çıkış" xfId="4" builtinId="21"/>
+    <cellStyle name="Giriş" xfId="3" builtinId="20"/>
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
+    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,13 +585,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -576,7 +600,7 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -587,159 +611,188 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="4"/>
       <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="4"/>
       <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18">
+    <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18">
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="18">
+    <row r="9" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="18">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="18">
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="18">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="18">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="18">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="18">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEAD78-47F2-46A2-8C49-1A4FE24C72AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Front-End</t>
   </si>
@@ -97,13 +98,16 @@
   </si>
   <si>
     <t>Gözde\Berkay</t>
+  </si>
+  <si>
+    <t>Favorite/Unfavorite Survey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +177,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +240,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -283,7 +306,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
@@ -296,6 +319,8 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="%40 - Vurgu3" xfId="6" builtinId="39"/>
@@ -584,23 +609,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -632,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -650,7 +675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -668,7 +693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -680,7 +705,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -692,7 +717,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -706,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -718,7 +743,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -732,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -742,11 +767,9 @@
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -754,7 +777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -764,12 +787,20 @@
       <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -778,7 +809,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -787,7 +818,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>

--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEAD78-47F2-46A2-8C49-1A4FE24C72AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774DB321-1432-4E4A-8CBC-3C57197A49DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Front-End</t>
   </si>
@@ -306,7 +306,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
@@ -321,6 +321,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="%40 - Vurgu3" xfId="6" builtinId="39"/>
@@ -613,7 +614,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +777,9 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">

--- a/Proje Görev Paylaşım.xlsx
+++ b/Proje Görev Paylaşım.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEAD78-47F2-46A2-8C49-1A4FE24C72AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,23 +608,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -639,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -657,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -675,7 +674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -693,19 +692,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -717,7 +716,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -731,7 +730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -743,7 +742,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -757,7 +756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -769,7 +768,7 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -777,7 +776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -789,7 +788,7 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -800,7 +799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -809,7 +808,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -818,7 +817,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
